--- a/exports/PackSize-Flexibility/avg_Params.xlsx
+++ b/exports/PackSize-Flexibility/avg_Params.xlsx
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -86,7 +86,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -120,7 +120,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2849,7 +2848,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
